--- a/Data/Generated/MIS_2022_extrait_CO2.xlsx
+++ b/Data/Generated/MIS_2022_extrait_CO2.xlsx
@@ -4,42 +4,29 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
-  <fonts count="4">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="10"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,40 +45,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -448,558 +421,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="14.62" customWidth="1" style="2" min="1" max="1"/>
-    <col width="13.37" customWidth="1" style="2" min="2" max="2"/>
-    <col width="22.13" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.82" customWidth="1" style="2" min="4" max="4"/>
-    <col width="16.71" customWidth="1" style="2" min="5" max="5"/>
-    <col width="17.55" customWidth="1" style="2" min="6" max="6"/>
-    <col width="30.06" customWidth="1" style="2" min="7" max="7"/>
-    <col width="9.4" customWidth="1" style="2" min="8" max="8"/>
-    <col width="12.13" customWidth="1" style="2" min="9" max="9"/>
-    <col width="25.87" customWidth="1" style="2" min="10" max="10"/>
-    <col width="11.43" customWidth="1" style="2" min="11" max="11"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Numéro mission</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Date de départ</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Ville de départ</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Pays de départ</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Ville de destination</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Pays de destination</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Moyens de transport</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Nb de pers. dans la voiture</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Aller / Retour</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Motif du déplacement</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Statut agent</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Distance (km)</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Emissions (kgCO2e)</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Validite</t>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>mission_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Départ (ville)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Départ (pays)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Arrivée (ville)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Arrivée (pays)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A/R</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Distance (one-way, km)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Distance totale (km)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CO2e emissions (kg)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Code pays départ</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Code pays arrivée</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Transport utilisé pour calcul</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Incertitude (kg)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="3">
-      <c r="A2" s="2" t="n">
+    <row r="2">
+      <c r="A2" t="n">
         <v>7959</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>44585</v>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>ORSAY</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Bus,Train</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Rech. en équipe, collaboration</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>569</v>
+      </c>
+      <c r="I2" t="n">
         <v>1138</v>
       </c>
-      <c r="M2" t="n">
+      <c r="J2" t="n">
         <v>4.1</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>train (FR)</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="3">
-      <c r="A3" s="2" t="n">
+    <row r="3">
+      <c r="A3" t="n">
         <v>7960</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>44585</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>PARIS</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Avion,Bus</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>Rech. en équipe, collaboration</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>588</v>
+      </c>
+      <c r="I3" t="n">
         <v>1176</v>
       </c>
-      <c r="M3" t="n">
+      <c r="J3" t="n">
         <v>352.4</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>plane (short)</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>246.7</v>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="3">
-      <c r="A4" s="2" t="n">
+    <row r="4">
+      <c r="A4" t="n">
         <v>7961</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>44585</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>PARIS</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Bus,Metro,Train</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Rech. en équipe, collaboration</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>588</v>
+      </c>
+      <c r="I4" t="n">
         <v>1176</v>
       </c>
-      <c r="M4" t="n">
+      <c r="J4" t="n">
         <v>4.2</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>train (FR)</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="3">
-      <c r="A5" s="2" t="n">
+    <row r="5">
+      <c r="A5" t="n">
         <v>7963</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>44578</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>VILLIERS SUR ORGE</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Banyuls sur Mer</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bus,Rer,Taxi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>690</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1380</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>train (FR)</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Colloques et congrés</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1378</v>
-      </c>
-      <c r="M5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="3">
-      <c r="A6" s="2" t="n">
+    <row r="6">
+      <c r="A6" t="n">
         <v>7967</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>44578</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>MONTROUGE</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Banyuls sur Mer</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Avion</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Colloques et congrés</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1414</v>
-      </c>
-      <c r="M6" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bus,Rer,Taxi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>707</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1415</v>
+      </c>
+      <c r="J6" t="n">
+        <v>414</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>plane (short)</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>289.8</v>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="3">
-      <c r="A7" s="2" t="n">
+    <row r="7">
+      <c r="A7" t="n">
         <v>7975</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>44582</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>PARIS</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Etats-Unis</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8101</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16202</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2491.6</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Avion</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Colloques et congrés</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>16206</v>
-      </c>
-      <c r="M7" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>plane (long)</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>1744.1</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="3">
-      <c r="A8" s="2" t="n">
-        <v>7976</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>44584</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7977</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>RENNES</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>toulouse</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>OUI</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>Autres</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1112</v>
-      </c>
-      <c r="M8" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rer,Taxi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>non [corr.]</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>556</v>
+      </c>
+      <c r="I8" t="n">
+        <v>556</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>train (FR)</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="3">
-      <c r="A9" s="2" t="n">
+    <row r="9">
+      <c r="A9" t="n">
         <v>7977</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>44591</v>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>PARIS</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Etats-Unis</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Avion,Bus,Train</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5851</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5851</v>
+      </c>
+      <c r="J9" t="n">
+        <v>903.7</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Avion,Bus,Train</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>NON</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>Visite, contact pour projet</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>5853</v>
-      </c>
-      <c r="M9" t="n">
-        <v>904.1</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>plane (long)</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>632.6</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/Generated/MIS_2022_extrait_CO2.xlsx
+++ b/Data/Generated/MIS_2022_extrait_CO2.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+  <si>
+    <t>Crédits</t>
+  </si>
   <si>
     <t>N° mission</t>
   </si>
   <si>
+    <t>Départ (date)</t>
+  </si>
+  <si>
     <t>Départ (ville)</t>
   </si>
   <si>
@@ -31,13 +37,13 @@
     <t>Arrivée (pays)</t>
   </si>
   <si>
+    <t>A/R</t>
+  </si>
+  <si>
     <t>Transport</t>
   </si>
   <si>
-    <t>A/R</t>
-  </si>
-  <si>
-    <t>Distance (one-way, km)</t>
+    <t>Transport utilisé pour calcul</t>
   </si>
   <si>
     <t>Distance totale (km)</t>
@@ -46,18 +52,12 @@
     <t>CO2e emissions (kg)</t>
   </si>
   <si>
-    <t>Code pays départ</t>
-  </si>
-  <si>
-    <t>Code pays arrivée</t>
-  </si>
-  <si>
-    <t>Transport utilisé pour calcul</t>
-  </si>
-  <si>
     <t>Incertitude (kg)</t>
   </si>
   <si>
+    <t>"CNRS"</t>
+  </si>
+  <si>
     <t>ORSAY</t>
   </si>
   <si>
@@ -73,7 +73,7 @@
     <t>RENNES</t>
   </si>
   <si>
-    <t>France</t>
+    <t>FR</t>
   </si>
   <si>
     <t>Toulouse</t>
@@ -91,7 +91,13 @@
     <t>New York</t>
   </si>
   <si>
-    <t>Etats-Unis</t>
+    <t>US</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>non</t>
   </si>
   <si>
     <t>Bus,Train</t>
@@ -110,21 +116,6 @@
   </si>
   <si>
     <t>Avion,Bus,Train</t>
-  </si>
-  <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>non [corr.]</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>US</t>
   </si>
   <si>
     <t>train (FR)</t>
@@ -140,6 +131,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,11 +186,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -500,23 +495,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,356 +550,329 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="B2">
+        <v>7959</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44585</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2">
+        <v>1138</v>
+      </c>
+      <c r="L2">
+        <v>4.1</v>
+      </c>
+      <c r="M2">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>7959</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>7960</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44585</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>1176</v>
+      </c>
+      <c r="L3">
+        <v>352.4</v>
+      </c>
+      <c r="M3">
+        <v>246.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>7961</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44585</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>1176</v>
+      </c>
+      <c r="L4">
+        <v>4.2</v>
+      </c>
+      <c r="M4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>7963</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44578</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>1380</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>7967</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44578</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>1415</v>
+      </c>
+      <c r="L6">
+        <v>414</v>
+      </c>
+      <c r="M6">
+        <v>289.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>7975</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44582</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>16202</v>
+      </c>
+      <c r="L7">
+        <v>2491.6</v>
+      </c>
+      <c r="M7">
+        <v>1744.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>7977</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44584</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="H2">
-        <v>569</v>
-      </c>
-      <c r="I2">
-        <v>1138</v>
-      </c>
-      <c r="J2">
-        <v>4.1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2">
-        <v>0.8</v>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>556</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>7960</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>7977</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44591</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>588</v>
-      </c>
-      <c r="I3">
-        <v>1176</v>
-      </c>
-      <c r="J3">
-        <v>352.4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3">
-        <v>246.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>7961</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>588</v>
-      </c>
-      <c r="I4">
-        <v>1176</v>
-      </c>
-      <c r="J4">
-        <v>4.2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>7963</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5">
-        <v>690</v>
-      </c>
-      <c r="I5">
-        <v>1380</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <v>7967</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6">
-        <v>707</v>
-      </c>
-      <c r="I6">
-        <v>1415</v>
-      </c>
-      <c r="J6">
-        <v>414</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6">
-        <v>289.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
-        <v>7975</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7">
-        <v>8101</v>
-      </c>
-      <c r="I7">
-        <v>16202</v>
-      </c>
-      <c r="J7">
-        <v>2491.6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
         <v>36</v>
       </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7">
-        <v>1744.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
-        <v>7977</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8">
-        <v>556</v>
-      </c>
-      <c r="I8">
-        <v>556</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
-        <v>7977</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9">
+      <c r="K9">
         <v>5851</v>
       </c>
-      <c r="I9">
-        <v>5851</v>
-      </c>
-      <c r="J9">
+      <c r="L9">
         <v>903.7</v>
       </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9">
+      <c r="M9">
         <v>632.6</v>
       </c>
     </row>
